--- a/published-data/fonds-solidarite/fds-2021-04-19/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-04-19/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -5541,13 +5541,13 @@
         <v>10</v>
       </c>
       <c r="C170">
-        <v>238397</v>
+        <v>238398</v>
       </c>
       <c r="D170">
         <v>37013</v>
       </c>
       <c r="E170">
-        <v>1463523007</v>
+        <v>1463525182</v>
       </c>
       <c r="F170" t="s">
         <v>20</v>
@@ -8731,13 +8731,13 @@
         <v>10</v>
       </c>
       <c r="C280">
-        <v>72640</v>
+        <v>72641</v>
       </c>
       <c r="D280">
         <v>19323</v>
       </c>
       <c r="E280">
-        <v>177988446</v>
+        <v>177990614</v>
       </c>
       <c r="F280" t="s">
         <v>26</v>
